--- a/MyStoreRTM.xlsx
+++ b/MyStoreRTM.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>Project name</t>
   </si>
@@ -45,9 +45,6 @@
   </si>
   <si>
     <t>Azar Tamboli</t>
-  </si>
-  <si>
-    <t>DD-MM-YYYY</t>
   </si>
   <si>
     <t xml:space="preserve">MY STORE </t>
@@ -178,7 +175,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -190,6 +187,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -474,7 +474,7 @@
   <dimension ref="A2:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -498,15 +498,15 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
@@ -521,30 +521,28 @@
       <c r="A6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>7</v>
+      <c r="B6" s="6">
+        <v>45174</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="B7" s="1"/>
     </row>
     <row r="9" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="C9" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="D9" s="4" t="s">
         <v>11</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -552,13 +550,13 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C10" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -566,13 +564,13 @@
         <v>1.2</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="5" t="s">
-        <v>15</v>
-      </c>
       <c r="D11" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -580,13 +578,13 @@
         <v>1.3</v>
       </c>
       <c r="B12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="5" t="s">
-        <v>17</v>
-      </c>
       <c r="D12" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -594,13 +592,13 @@
         <v>1.4</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -608,13 +606,13 @@
         <v>1.5</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
